--- a/flask_exe/data/users.xlsx
+++ b/flask_exe/data/users.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flalala\flask_exe\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\色々\flalala\flask_exe\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D41C5D12-A0CF-49AD-BE48-0298E2737184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5290765-3EA7-4320-B72B-7967D363F620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2508" windowWidth="12900" windowHeight="7500" xr2:uid="{28D8EB7B-1BEF-43F1-98DF-5E5DAC7B68B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28D8EB7B-1BEF-43F1-98DF-5E5DAC7B68B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
     <phoneticPr fontId="1"/>
@@ -46,11 +46,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
     <t>shinkpad</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>shinkun1005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>bou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kopad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>koukun1111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -435,36 +464,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B82E818-C916-4438-87D7-D60366393607}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
